--- a/data/trans_dic/P19D_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,48; 15,3</t>
+          <t>10,38; 15,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,46; 29,72</t>
+          <t>23,24; 29,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,7; 17,01</t>
+          <t>10,45; 17,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,21; 21,67</t>
+          <t>15,3; 21,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,66; 11,57</t>
+          <t>7,86; 11,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,19; 17,63</t>
+          <t>13,05; 17,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,19; 15,54</t>
+          <t>10,25; 15,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,59; 15,48</t>
+          <t>10,51; 15,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,48; 12,51</t>
+          <t>9,4; 12,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,11; 21,85</t>
+          <t>18,22; 21,89</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,08; 15,38</t>
+          <t>11,43; 15,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,15; 17,07</t>
+          <t>13,04; 16,96</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,36; 6,98</t>
+          <t>4,35; 6,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,79; 11,98</t>
+          <t>8,79; 11,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,56; 11,6</t>
+          <t>8,65; 11,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,2; 17,34</t>
+          <t>7,21; 17,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,77; 7,31</t>
+          <t>4,74; 7,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,81; 10,96</t>
+          <t>7,93; 10,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,39; 10,23</t>
+          <t>7,44; 10,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,51; 5,33</t>
+          <t>3,53; 5,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,9; 6,67</t>
+          <t>4,92; 6,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,78; 10,81</t>
+          <t>8,75; 10,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,36; 10,36</t>
+          <t>8,34; 10,39</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,71; 11,64</t>
+          <t>5,7; 11,46</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 5,61</t>
+          <t>1,74; 5,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,73; 5,67</t>
+          <t>1,91; 5,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,7</t>
+          <t>1,55; 4,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,58; 4,89</t>
+          <t>1,58; 4,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 5,1</t>
+          <t>1,5; 4,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 7,07</t>
+          <t>2,95; 7,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 6,79</t>
+          <t>2,97; 6,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 3,49</t>
+          <t>1,42; 3,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,5</t>
+          <t>2,06; 4,68</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,8; 5,74</t>
+          <t>2,86; 5,63</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 5,21</t>
+          <t>2,64; 5,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 3,54</t>
+          <t>1,76; 3,56</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,27; 8,31</t>
+          <t>6,15; 8,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,31; 14,9</t>
+          <t>12,2; 14,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,27; 10,44</t>
+          <t>8,19; 10,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,05; 14,94</t>
+          <t>7,92; 15,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,82; 7,76</t>
+          <t>5,91; 7,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,86; 12,1</t>
+          <t>9,82; 12,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,89; 10,04</t>
+          <t>7,8; 10,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,96; 6,64</t>
+          <t>4,94; 6,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,22; 7,69</t>
+          <t>6,24; 7,65</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,3; 12,98</t>
+          <t>11,33; 13,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,26; 9,91</t>
+          <t>8,33; 9,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,68; 10,21</t>
+          <t>6,62; 10,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19D_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,38; 15,58</t>
+          <t>10,62; 15,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,24; 29,45</t>
+          <t>22,88; 29,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,45; 17,22</t>
+          <t>10,61; 17,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,86; 11,38</t>
+          <t>7,58; 11,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,05; 17,55</t>
+          <t>13,33; 17,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,25; 15,68</t>
+          <t>10,4; 15,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,4; 12,51</t>
+          <t>9,35; 12,37</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18,22; 21,89</t>
+          <t>18,18; 21,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,43; 15,41</t>
+          <t>11,33; 15,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,35; 6,96</t>
+          <t>4,37; 6,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,79; 11,95</t>
+          <t>8,82; 11,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,65; 11,73</t>
+          <t>8,49; 11,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 7,36</t>
+          <t>4,77; 7,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,93; 10,96</t>
+          <t>7,96; 10,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,44; 10,2</t>
+          <t>7,3; 10,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,92; 6,78</t>
+          <t>4,85; 6,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8,75; 10,84</t>
+          <t>8,74; 10,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,34; 10,39</t>
+          <t>8,33; 10,48</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,5</t>
+          <t>1,78; 5,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,77</t>
+          <t>1,95; 6,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 4,66</t>
+          <t>1,67; 4,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,9</t>
+          <t>1,33; 4,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,95; 7,28</t>
+          <t>3,11; 7,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,97; 6,77</t>
+          <t>2,99; 6,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,68</t>
+          <t>2,01; 4,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 5,63</t>
+          <t>2,88; 5,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 5,19</t>
+          <t>2,6; 4,96</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,15; 8,35</t>
+          <t>6,21; 8,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,2; 14,89</t>
+          <t>12,22; 14,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,19; 10,52</t>
+          <t>8,11; 10,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,91; 7,81</t>
+          <t>5,84; 7,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,82; 12,12</t>
+          <t>9,88; 12,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,8; 10,03</t>
+          <t>7,9; 10,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,24; 7,65</t>
+          <t>6,33; 7,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>11,33; 13,13</t>
+          <t>11,34; 13,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,33; 9,86</t>
+          <t>8,33; 9,92</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
